--- a/P0006/09_FICHAS/N3-FD-General.xlsx
+++ b/P0006/09_FICHAS/N3-FD-General.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28521"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0006/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="332" documentId="13_ncr:1_{E747C491-3135-4E1F-A63F-A4E4C810BC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F847E03-5E86-44C3-8CC7-075B932F1BE5}"/>
+  <xr:revisionPtr revIDLastSave="352" documentId="13_ncr:1_{E747C491-3135-4E1F-A63F-A4E4C810BC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8F60C6F-A9BC-4B94-9CF6-79F835473594}"/>
   <bookViews>
-    <workbookView xWindow="4605" yWindow="1485" windowWidth="18435" windowHeight="6690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="145">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -140,9 +140,6 @@
     <t>R0003</t>
   </si>
   <si>
-    <t>CALCULO GPS_MOJANA.xls</t>
-  </si>
-  <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0006/02_PRODUCTOS/INFORME/ANEXOS/8.1 RESULTADOS/8.1.4 CONTROL TERRESTRE (FOTOCONTROL)/CALCULO GPS_MOJANA.xls</t>
   </si>
   <si>
@@ -203,24 +200,6 @@
     <t>Red geodésica, puntos de control, altura elipsoidal, coordenadas proyectadas, Magna-Colombia-Bogotá, georreferenciación, topografía, vulnerabilidad a inundaciones, análisis espacial, Ayapel, La Mojana</t>
   </si>
   <si>
-    <t>R0006</t>
-  </si>
-  <si>
-    <t>Departamentos.shp</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0006/02_PRODUCTOS/INFORME/ANEXOS/8.4 PLANO RED GEODESICA/Departamentos.shp</t>
-  </si>
-  <si>
-    <t>R0007</t>
-  </si>
-  <si>
-    <t>Limite_de_Proyecto.shp</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0006/02_PRODUCTOS/INFORME/ANEXOS/8.4 PLANO RED GEODESICA/Limite_de_Proyecto.shp</t>
-  </si>
-  <si>
     <t>R0008</t>
   </si>
   <si>
@@ -311,15 +290,6 @@
     <t>Red geodésica, puntos, altura, coordenadas proyectadas, Magna-Colombia-Bogotá, georreferenciación, topografía, vulnerabilidad a inundaciones, análisis espacial, La Mojana, elevación</t>
   </si>
   <si>
-    <t>R0013</t>
-  </si>
-  <si>
-    <t>Línea_Magangué-Coyongal.shp</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0006/02_PRODUCTOS/INFORME/ANEXOS/8.4 PLANO RED GEODESICA/Línea_Magangué-Coyongal.shp</t>
-  </si>
-  <si>
     <t>R0014</t>
   </si>
   <si>
@@ -500,23 +470,14 @@
     <t>Cuerpos de agua, polígonos, coordenadas geográficas, WGS 84, EPSG:4326, georreferenciación,  hidrología,  vulnerabilidad a inundaciones,</t>
   </si>
   <si>
-    <t>R0024</t>
-  </si>
-  <si>
-    <t>curvas_wgs84.shp</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0006/02_PRODUCTOS/INFORME/ANEXOS/8.4 PLANO RED GEODESICA/curvas_wgs84.shp</t>
-  </si>
-  <si>
-    <t>Línea</t>
+    <t>CALCULO GPS_MOJANA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -906,13 +867,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H11" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="49.7109375" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
@@ -921,7 +882,7 @@
     <col min="10" max="10" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -971,7 +932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="47.25" customHeight="1">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1021,7 +982,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="47.25" customHeight="1">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1071,7 +1032,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1082,10 +1043,10 @@
         <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="F4" s="1">
         <v>2013</v>
@@ -1094,7 +1055,7 @@
         <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>23</v>
@@ -1118,10 +1079,10 @@
         <v>26</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
@@ -1129,13 +1090,13 @@
         <v>17</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="F5" s="8">
         <v>2013</v>
@@ -1144,34 +1105,34 @@
         <v>21</v>
       </c>
       <c r="H5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="J5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="K5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="L5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="M5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="N5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="8" t="s">
+      <c r="P5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="P5" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
@@ -1179,105 +1140,149 @@
         <v>17</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="8">
+        <v>9999</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8" t="s">
+      <c r="I6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="P6" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="8">
+        <v>2013</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="K7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="L7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="M7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="7" t="s">
+      <c r="N7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7" t="s">
+      <c r="C8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="8">
+        <v>2013</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="L8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
@@ -1285,13 +1290,13 @@
         <v>17</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F9" s="8">
         <v>2013</v>
@@ -1300,34 +1305,34 @@
         <v>21</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="K9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="L9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="M9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="N9" s="8" t="s">
         <v>25</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
@@ -1335,13 +1340,13 @@
         <v>17</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>68</v>
+        <v>72</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F10" s="8">
         <v>2013</v>
@@ -1350,34 +1355,34 @@
         <v>21</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="K10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="L10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="M10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="N10" s="8" t="s">
         <v>25</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
@@ -1385,13 +1390,13 @@
         <v>17</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F11" s="8">
         <v>2013</v>
@@ -1400,34 +1405,34 @@
         <v>21</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="K11" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="L11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="M11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="M11" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="N11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>16</v>
       </c>
@@ -1435,13 +1440,13 @@
         <v>17</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F12" s="8">
         <v>2013</v>
@@ -1450,34 +1455,34 @@
         <v>21</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="K12" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="L12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="M12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="M12" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="N12" s="8" t="s">
         <v>25</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>16</v>
       </c>
@@ -1485,13 +1490,13 @@
         <v>17</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>86</v>
+        <v>90</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F13" s="8">
         <v>2013</v>
@@ -1500,64 +1505,84 @@
         <v>21</v>
       </c>
       <c r="H13" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="8">
+        <v>2013</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="P14" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>16</v>
       </c>
@@ -1565,13 +1590,13 @@
         <v>17</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="F15" s="8">
         <v>2013</v>
@@ -1580,34 +1605,34 @@
         <v>21</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="K15" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="L15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="M15" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="M15" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="N15" s="8" t="s">
         <v>25</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>16</v>
       </c>
@@ -1615,13 +1640,13 @@
         <v>17</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>101</v>
+        <v>107</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="F16" s="8">
         <v>2013</v>
@@ -1630,34 +1655,34 @@
         <v>21</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="I16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="K16" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="L16" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="M16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="M16" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="N16" s="8" t="s">
         <v>25</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>16</v>
       </c>
@@ -1665,13 +1690,13 @@
         <v>17</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F17" s="8">
         <v>2013</v>
@@ -1680,34 +1705,34 @@
         <v>21</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="I17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="K17" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="L17" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="M17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="M17" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="N17" s="8" t="s">
         <v>25</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
@@ -1715,13 +1740,13 @@
         <v>17</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F18" s="8">
         <v>2013</v>
@@ -1730,84 +1755,70 @@
         <v>21</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" s="7">
+        <v>2013</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J18" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="N18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O18" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="P18" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F19" s="8">
-        <v>2013</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O19" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="P19" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>16</v>
       </c>
@@ -1815,13 +1826,13 @@
         <v>17</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F20" s="8">
         <v>2013</v>
@@ -1830,34 +1841,34 @@
         <v>21</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="I20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="K20" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="L20" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="L20" s="8" t="s">
+      <c r="M20" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="M20" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="N20" s="8" t="s">
         <v>25</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>16</v>
       </c>
@@ -1865,13 +1876,13 @@
         <v>17</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F21" s="8">
         <v>2013</v>
@@ -1880,212 +1891,32 @@
         <v>21</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="I21" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J21" s="8" t="s">
-        <v>133</v>
-      </c>
       <c r="K21" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>25</v>
+        <v>141</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="N21" s="8" t="s">
         <v>25</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F22" s="7">
-        <v>2013</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E23" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="F23" s="8">
-        <v>2013</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O23" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="P23" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F24" s="8">
-        <v>2013</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="M24" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="N24" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O24" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="P24" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F25" s="7">
-        <v>2013</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="N25" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
